--- a/Registros/25-10-2025.xlsx
+++ b/Registros/25-10-2025.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Asistencia" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Mañana" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Docentes" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Tarde" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>REGISTRO DE ASISTENCIA - SEMESTRAL - MAÑANA</t>
   </si>
@@ -49,7 +51,7 @@
     <t>L, M, MI, J, V, S</t>
   </si>
   <si>
-    <t>12:42A.M.</t>
+    <t>08:09P.M.</t>
   </si>
   <si>
     <t>REGISTRO DE ASISTENCIA - ANUAL - MAÑANA</t>
@@ -58,10 +60,43 @@
     <t>CHUMPITAZ MORENO ADRIANO</t>
   </si>
   <si>
+    <t>CONOPUMA ARENAZA PAOLA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SABATINO - MAÑANA</t>
+  </si>
+  <si>
+    <t>CUBA YARANGA JOSUE RICARCO</t>
+  </si>
+  <si>
+    <t>CURO GONZALES DENNIS</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - DOCENTES</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t>DANIELA CORDOVA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>FALTA</t>
   </si>
   <si>
-    <t>CONOPUMA ARENAZA PAOLA</t>
+    <t>JAVIER RAMIREZ</t>
+  </si>
+  <si>
+    <t>MARIA LOPEZ</t>
+  </si>
+  <si>
+    <t>PEDRO VILLALOBOS</t>
+  </si>
+  <si>
+    <t>09:04P.M.</t>
   </si>
   <si>
     <t>REGISTRO DE ASISTENCIA - ANUAL - TARDE</t>
@@ -73,21 +108,15 @@
     <t>TARDE</t>
   </si>
   <si>
+    <t>08:10P.M.</t>
+  </si>
+  <si>
     <t>QUIROZ HOYOS MATHIAS</t>
   </si>
   <si>
     <t>RODRIGUEZ QUISPE SERGIO</t>
   </si>
   <si>
-    <t>REGISTRO DE ASISTENCIA - SABATINO - MAÑANA</t>
-  </si>
-  <si>
-    <t>CUBA YARANGA JOSUE RICARCO</t>
-  </si>
-  <si>
-    <t>CURO GONZALES DENNIS</t>
-  </si>
-  <si>
     <t>REGISTRO DE ASISTENCIA - SABATINO - TARDE</t>
   </si>
   <si>
@@ -95,27 +124,6 @@
   </si>
   <si>
     <t>ROJAS SANTIAGO DAFNE</t>
-  </si>
-  <si>
-    <t>REGISTRO DE ASISTENCIA - DOCENTES</t>
-  </si>
-  <si>
-    <t>DOCENTE</t>
-  </si>
-  <si>
-    <t>DANIELA CORDOVA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>JAVIER RAMIREZ</t>
-  </si>
-  <si>
-    <t>MARIA LOPEZ</t>
-  </si>
-  <si>
-    <t>PEDRO VILLALOBOS</t>
   </si>
 </sst>
 </file>
@@ -143,18 +151,19 @@
     </font>
     <font>
       <b/>
+      <i/>
       <color rgb="FF404040"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
     </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,7 +182,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E78"/>
       </patternFill>
     </fill>
     <fill>
@@ -183,7 +197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F4E78"/>
+        <fgColor rgb="FFBDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -223,13 +237,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,14 +588,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="22.1" customWidth="1"/>
-    <col min="5" max="5" width="11.700000000000001" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,7 +631,7 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -631,7 +648,7 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -641,11 +658,344 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -674,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,327 +1041,24 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>3</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>4</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Registros/25-10-2025.xlsx
+++ b/Registros/25-10-2025.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>REGISTRO DE ASISTENCIA - SEMESTRAL - MAÑANA</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>QUIROZ HOYOS MATHIAS</t>
+  </si>
+  <si>
+    <t>09:19P.M.</t>
   </si>
   <si>
     <t>RODRIGUEZ QUISPE SERGIO</t>
@@ -972,8 +975,8 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -995,7 +998,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1024,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -1041,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
